--- a/DMSNewVSale_2025-10-27_19-01.xlsx
+++ b/DMSNewVSale_2025-10-27_19-01.xlsx
@@ -483,6 +483,15 @@
   </si>
   <si>
     <t>192.0000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
   </si>
   <si>
     <t>TUSSKAN SYRUP 100 ML</t>
@@ -2699,7 +2708,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2709,11 +2718,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>15</v>
@@ -2725,14 +2734,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2742,14 +2751,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2758,14 +2767,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2775,14 +2784,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2791,14 +2800,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2808,14 +2817,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2837,7 +2846,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2845,10 +2854,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2857,14 +2866,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2874,11 +2883,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>15</v>
@@ -2890,14 +2899,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2930,7 +2939,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2940,11 +2949,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>15</v>
@@ -2956,14 +2965,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2973,14 +2982,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>112</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2996,7 +3005,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3013,7 +3022,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>15</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3029,7 +3038,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3072,11 +3081,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>15</v>
@@ -3088,7 +3097,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3105,7 +3114,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3138,11 +3147,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>15</v>
@@ -3154,14 +3163,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3171,51 +3180,84 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q65" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>195</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>196</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>29</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>138</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>112</v>
       </c>
     </row>
-    <row r="66" ht="26.25" customHeight="1">
-      <c r="N66" s="13">
-        <v>3145.4650000000001</v>
-      </c>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>195</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>196</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
-        <v>197</v>
-      </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+    <row r="67" ht="26.25" customHeight="1">
+      <c r="N67" s="13">
+        <v>3173.4650000000001</v>
+      </c>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>198</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>199</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>200</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3519,10 +3561,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
